--- a/pred_ohlcv/54_21/2020-01-15 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>58.49999045999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>116.13009046</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>115.36729046</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>115.49694712</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>159.24054712</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>162.90934712</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>162.90934712</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>163.20846691</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>178.25056691</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>181.40916691</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>205.60916691</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-80.94023309000002</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-118.21803309</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-120.82983309</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-120.82983309</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-119.84983309</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-119.84983309</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-119.91763309</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-119.91763309</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>45.87136690999996</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>66.21616690999997</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>66.17146690999996</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>63.87146690999997</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>65.94816690999997</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2.662233090000029</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2.662233090000029</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-53.97383309000003</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-53.97383309000003</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-53.49153309000003</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-53.01463309000003</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-58.31463309000002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-58.34423309000002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>222.64846691</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>172.0222446199999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>174.3616446199999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>185.3616446199999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>346.7327446199999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>245.5983446199999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>246.6931446199999</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-88757.30685538</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-88454.06645537999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-88440.06645537999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-88456.90885537998</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-88429.81844450998</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-88426.60875537997</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-88412.80025537997</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-88185.27835537998</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-88173.20855537998</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-88108.63489053999</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-88118.20329054</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-88152.62189054</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-88166.77699054001</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-88197.06999054001</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-88238.49089054001</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-88181.56439054001</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-88077.70729054001</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-88116.49179054001</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-88183.50899054001</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-88354.64759054</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-88354.16869054</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-88356.09389054</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-88357.19469054</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-88352.16789053999</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-88250.87319053999</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-88289.32929053999</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-88229.04259053999</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-88202.13799054</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-88177.84869053999</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-88038.91759053999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-88039.75149053999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-88121.11629053998</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-87929.90255898994</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-87936.51045898994</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-88002.04975898995</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-88062.22288142995</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-88272.28898142994</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-88242.29178142994</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-88243.37468142994</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-88543.37468142994</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-88346.43408142994</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-88248.17208142993</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-88319.89588142994</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-88333.78088142994</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-88059.85698142994</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-88197.82958142993</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-88216.33638142994</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-88200.58528142994</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-88208.49388142995</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-88200.16678142996</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-88200.35898142996</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-88114.42738142995</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-88114.29238142996</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-88164.28348142996</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-88162.93828142996</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-88102.65198142997</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-88093.12188142996</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-87938.52828142994</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-87963.52828142994</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-87963.40968142994</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-88243.99644402994</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-88031.65344402994</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-88055.25704402992</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-88053.25704402992</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-88046.81574402993</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-88056.81574402993</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-88061.19374402992</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-88052.80364402992</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-88098.20024402991</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-88119.29154402991</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-88129.29154402991</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-87983.51304402991</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-87988.66044402991</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-87992.80954402991</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-87997.2095440299</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-87985.5446440299</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-87981.34964402989</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-88015.77544402989</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-88117.02914402989</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-88117.89054402988</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-88117.86234402988</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-88127.86234402988</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-88152.10034402988</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-88141.45324402988</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-88151.77134402988</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-88163.34534402989</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-88165.27414402989</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-88143.70294402988</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-88143.68894402988</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-88146.31194402989</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-88147.39004402989</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-88130.34784402988</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-88221.78114402988</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-88173.57114402988</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-88208.74904402987</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-88173.60844402987</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-88204.09274402987</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-88257.94534402987</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-88295.70034402987</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-88189.15224402987</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-87986.04514402986</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-88195.61964402987</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-88194.66194402987</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-88200.93904402987</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-88254.03364402987</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-88258.18274402987</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-88256.71154402987</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-88293.44794402987</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-88292.63604402987</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-88277.43604402988</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-88273.32834402988</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-88273.02204402989</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-88264.82404402988</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-88263.47076032989</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-88262.4340611899</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-88265.7177611899</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-88234.8070611899</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-88224.41406118991</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-88206.25696118991</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-88195.60146118992</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-88215.60146118992</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-88260.34026118992</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-88269.16846118993</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-88294.70806118993</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-88352.75606118992</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-88341.87766118992</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-88335.41136118992</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-88326.88026118993</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-88368.63496118993</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-88357.16021952993</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-88371.24811952993</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-88379.82891952993</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-88372.53211952993</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-88382.53211952993</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-88380.63131952993</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-88383.20191952994</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-88396.69171952993</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-88395.97941952993</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-88396.99231952993</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-88389.22061952994</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-88366.22341952994</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-88370.78161952994</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-88352.56641952993</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-88382.90501952994</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-88406.29851952994</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-88402.85441952995</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-88402.83241952995</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-88402.82141952995</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-88403.60671952995</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-88402.91961952996</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-88394.09141952996</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-88392.52091952995</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-88372.23591952995</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-88329.32661952995</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-88632.96811952995</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-88632.95711952995</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-88633.45711952995</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-88646.51211952994</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-88646.50111952994</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-88647.01211952994</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-88815.25051952995</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-88815.87421952994</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-88816.80891952994</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-88816.78081952994</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-88807.59131952995</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-88808.58781952994</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-88783.69221952994</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-88783.67021952994</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-88820.07931952995</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-88826.03991952994</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-88829.05091952994</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-88399.88311952994</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-88391.67411952994</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ZEC ohlcv.xlsx
@@ -6476,7 +6476,7 @@
         <v>-88454.06645537999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-88440.06645537999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-88456.90885537998</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-88426.60875537997</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-88412.80025537997</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-88185.18155537998</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-88185.27835537998</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-88173.20855537998</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-88108.02939053999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-88108.32959054</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-88108.32959054</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-88108.65489054</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-88108.63489053999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-88118.20329054</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-88152.62189054</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-88166.77699054001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-88197.06999054001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-88238.49089054001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-88181.56439054001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-88077.70729054001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-88116.49179054001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-88183.50899054001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-88354.64759054</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-88354.16869054</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-88356.09389054</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-88357.19469054</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-88352.16789053999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-88250.87319053999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-88289.32929053999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-88229.04259053999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-88202.13799054</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-88177.84869053999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-88130.26909053999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-88063.41379054</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-88038.91759053999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-88039.75149053999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-88121.11629053998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-88118.30389053999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-88121.50709053999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-88004.24049053999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-88016.58319053998</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-88004.58319053998</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-88007.82209053998</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-88002.85599053997</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-87992.23119053997</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-88002.84869053996</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-87989.06029053996</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-87951.75895898996</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-87925.81365898995</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-87923.33465898994</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-87963.01415898994</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-87930.66385898994</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-87929.90255898994</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-87936.51045898994</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-88002.04975898995</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-88062.22288142995</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-88272.28898142994</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-88242.29178142994</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-88243.37468142994</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-88543.37468142994</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-88346.43408142994</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-88248.17208142993</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-88059.85698142994</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-88197.82958142993</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-88216.33638142994</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-88200.58528142994</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-88161.96128142995</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-88140.10038142995</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-88130.10038142995</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-88136.45968142994</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-88212.87488142995</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-88212.87488142995</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-88200.35898142996</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-88104.73438142995</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-88114.42738142995</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-88114.29238142996</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-88164.28348142996</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-88162.93828142996</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-88090.45738142997</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-88102.65198142997</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-88090.18988142996</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-88093.12188142996</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-88093.12188142996</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-88067.73088142996</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-88067.78588142995</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-88091.39848142995</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-88090.75778142994</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-88057.44238142994</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-88068.33958142994</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-88050.04708142995</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-87938.52828142994</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-87938.52828142994</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-87963.52828142994</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-87963.40968142994</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-87956.03794402994</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-88243.99644402994</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-87916.23114402994</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-88003.61754402994</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-88017.28974402994</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-88024.97724402994</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-88024.95344402995</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-88024.95344402995</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-88031.65344402994</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-88051.41044402994</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-88059.62814402994</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-88058.21934402993</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-88060.63384402993</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-88062.15654402993</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-88051.12334402993</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-88051.22234402993</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-88058.74164402993</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-88030.15074402993</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-88030.15074402993</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-88037.52244402994</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-88016.91364402993</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-88021.99634402993</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-88061.56484402993</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-88061.66484402993</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-88074.31704402993</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-88067.40734402993</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-88055.25704402992</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-88053.25704402992</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-88046.81574402993</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-88056.81574402993</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-88061.19374402992</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-88052.80364402992</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-88098.20024402991</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-88119.29154402991</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-88129.29154402991</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-87983.51304402991</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-87988.66044402991</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-87992.80954402991</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-87997.2095440299</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-87985.5446440299</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-87981.34964402989</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-88015.77544402989</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-88117.02914402989</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-88117.89054402988</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-88117.86234402988</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-88127.86234402988</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-88152.10034402988</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-88141.45324402988</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-88151.77134402988</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-88163.34534402989</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-88165.27414402989</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-88143.70294402988</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-88143.68894402988</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-88146.31194402989</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-88147.39004402989</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-88144.35774402988</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-88130.48424402988</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-88130.34784402988</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-88221.78114402988</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-88173.57114402988</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-88208.74904402987</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-88173.60844402987</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-88204.09274402987</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-88257.94534402987</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-88295.70034402987</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-88189.15224402987</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-87980.48944402987</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-87979.06904402986</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-87986.04514402986</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-88195.61964402987</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-88194.66194402987</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-88200.93904402987</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-88254.03364402987</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-88258.18274402987</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-88256.71154402987</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-88293.44794402987</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-88292.63604402987</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-88277.43604402988</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-88273.32834402988</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-88273.02204402989</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-88264.82404402988</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-88263.47076032989</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-88262.4340611899</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-88265.7177611899</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-88234.8070611899</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-88224.41406118991</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-88206.25696118991</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-88195.60146118992</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-88215.60146118992</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-88260.34026118992</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-88269.16846118993</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-88294.70806118993</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-88352.75606118992</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-88341.87766118992</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-88335.41136118992</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-88326.88026118993</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-88368.63496118993</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-88357.16021952993</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-88371.24811952993</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-88379.82891952993</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-88372.53211952993</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-88382.53211952993</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-88380.63131952993</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-88383.20191952994</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-88396.69171952993</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-88395.97941952993</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-88396.99231952993</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-88389.22061952994</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-88366.22341952994</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-88370.78161952994</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-88352.56641952993</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-88382.90501952994</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-88406.29851952994</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-88402.85441952995</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-88402.83241952995</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-88402.82141952995</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-88403.60671952995</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-88402.91961952996</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-88394.09141952996</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-88392.52091952995</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-88372.23591952995</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-88329.32661952995</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-88632.96811952995</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-88632.95711952995</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-88633.45711952995</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-88646.51211952994</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-88646.50111952994</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-88647.01211952994</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-88815.25051952995</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-88815.87421952994</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-88816.80891952994</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-88816.78081952994</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-88807.59131952995</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-88808.58781952994</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-88783.69221952994</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-88783.67021952994</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-88820.07931952995</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-88826.03991952994</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-88829.05091952994</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-88399.88311952994</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-88391.67411952994</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
